--- a/Engage/K12-Performance/src/main/resources/excelfiles/K12_Performance.xlsx
+++ b/Engage/K12-Performance/src/main/resources/excelfiles/K12_Performance.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833B6110-D24C-4D93-92C6-313D665C5A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="Users" sheetId="2" r:id="rId3"/>
     <sheet name="PerformanceTC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="80">
   <si>
     <t>Environment</t>
   </si>
@@ -90,15 +91,6 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>Expected2</t>
-  </si>
-  <si>
-    <t>Expected3</t>
-  </si>
-  <si>
-    <t>https://www.sogosurvey.com/</t>
-  </si>
-  <si>
     <t>Performance_TC1</t>
   </si>
   <si>
@@ -108,42 +100,177 @@
     <t>TimeLoad</t>
   </si>
   <si>
-    <t>SoGo@NS3196</t>
-  </si>
-  <si>
-    <t>sogo_jk_enterprise</t>
-  </si>
-  <si>
     <t>Platform Log in</t>
   </si>
   <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>K12 Platform</t>
+  </si>
+  <si>
+    <t>https://www.k12insight.com/static/k12insight_login.html</t>
+  </si>
+  <si>
+    <t>skumar_test</t>
+  </si>
+  <si>
+    <t>ResearchK12@NS3196</t>
+  </si>
+  <si>
+    <t>Reading 1</t>
+  </si>
+  <si>
+    <t>Reading 2</t>
+  </si>
+  <si>
+    <t>Reading 3</t>
+  </si>
+  <si>
+    <t>Performance_TC8</t>
+  </si>
+  <si>
+    <t>Gaurav</t>
+  </si>
+  <si>
+    <t>Sogo Platform</t>
+  </si>
+  <si>
+    <t>Load SM Tab</t>
+  </si>
+  <si>
+    <t>Capture the page load time of SM Tab</t>
+  </si>
+  <si>
+    <t>Note page load time</t>
+  </si>
+  <si>
     <t>SKIP</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>TestData</t>
-  </si>
-  <si>
-    <t>K12 Platform</t>
+    <t>Performance_TC9</t>
+  </si>
+  <si>
+    <t>Depositing a Question in QB</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Depositing in Question Bank</t>
+  </si>
+  <si>
+    <t>Performance_TC10</t>
+  </si>
+  <si>
+    <t>Add Comment</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Add Comment</t>
+  </si>
+  <si>
+    <t>Performance_TC11</t>
+  </si>
+  <si>
+    <t>Delete Comment</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Delete Comment</t>
+  </si>
+  <si>
+    <t>Move Page</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Move Page</t>
+  </si>
+  <si>
+    <t>Move Matrix Grid</t>
+  </si>
+  <si>
+    <t>Capture the page load time of moving Matrix Grid question</t>
+  </si>
+  <si>
+    <t>Load DM Tab</t>
+  </si>
+  <si>
+    <t>Capture the page load time of DM Tab</t>
+  </si>
+  <si>
+    <t>Load RM tab</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Report Tab</t>
+  </si>
+  <si>
+    <t>Load OMNI Report</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Omni Report</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Logout</t>
+  </si>
+  <si>
+    <t>Performance_TC2</t>
+  </si>
+  <si>
+    <t>Performance_TC3</t>
+  </si>
+  <si>
+    <t>Performance_TC4</t>
+  </si>
+  <si>
+    <t>Performance_TC5</t>
+  </si>
+  <si>
+    <t>Performance_TC6</t>
+  </si>
+  <si>
+    <t>Performance_TC7</t>
+  </si>
+  <si>
+    <t>7310 Night Support Readings FROM sharlot_test,7310</t>
+  </si>
+  <si>
+    <t>7310 Night Support Readings FROM sharlot_test,7310,Additional suggestions do you have for improving the support for new teachers at this school</t>
+  </si>
+  <si>
+    <t>7310 Night Support Readings FROM sharlot_test,7310,1</t>
+  </si>
+  <si>
+    <t>RMX READING SURVEY DNT,7250</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>10.24</t>
-  </si>
-  <si>
-    <t>17.19</t>
+    <t xml:space="preserve"> Failed to execute script :return currentQuestionJSON.qid;</t>
+  </si>
+  <si>
+    <t>8.63</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> K12 Static Login Image not present on page.</t>
+  </si>
+  <si>
+    <t>5.69</t>
+  </si>
+  <si>
+    <t>8.91</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +310,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -208,8 +342,74 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,21 +428,36 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
@@ -292,8 +507,188 @@
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -329,12 +724,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -343,15 +751,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -632,12 +1070,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,19 +1100,22 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2A2CA706-B46A-467F-9BA5-8EBD27047C74}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -716,12 +1157,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,25 +1195,28 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{122A00AC-DDB2-47C5-B9AA-4154067F0935}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,10 +1233,10 @@
     <col min="10" max="10" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="13.5703125" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="13" max="15" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="13" max="16" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -809,7 +1253,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -824,27 +1268,30 @@
         <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -859,28 +1306,566 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="13" t="s">
-        <v>35</v>
+      <c r="J2" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="4"/>
       <c r="N2" s="1"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11">
+        <v>9.69</v>
+      </c>
+      <c r="N3" s="1">
+        <v>9.52</v>
+      </c>
+      <c r="O3" s="11">
+        <v>7.71</v>
+      </c>
+      <c r="P3" s="12">
+        <f t="shared" ref="P3:P12" si="0">AVERAGE(M3:O3)</f>
+        <v>8.9733333333333345</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="O4" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="P4" s="12">
+        <f t="shared" si="0"/>
+        <v>1.2866666666666668</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11">
+        <v>4.01</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="O5" s="11">
+        <v>2.98</v>
+      </c>
+      <c r="P5" s="12">
+        <f t="shared" si="0"/>
+        <v>3.2533333333333334</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11">
+        <v>3.85</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="O6" s="11">
+        <v>2.94</v>
+      </c>
+      <c r="P6" s="12">
+        <f t="shared" si="0"/>
+        <v>3.1199999999999997</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11">
+        <v>3.68</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="O7" s="11">
+        <v>3.94</v>
+      </c>
+      <c r="P7" s="12">
+        <f t="shared" si="0"/>
+        <v>3.6133333333333333</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="11">
+        <v>5.58</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="O8" s="11">
+        <v>3.98</v>
+      </c>
+      <c r="P8" s="12">
+        <f t="shared" si="0"/>
+        <v>4.373333333333334</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="O9" s="11">
+        <v>4.05</v>
+      </c>
+      <c r="P9" s="12">
+        <f t="shared" si="0"/>
+        <v>4.5866666666666669</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11">
+        <v>7.06</v>
+      </c>
+      <c r="N10" s="1">
+        <v>5.94</v>
+      </c>
+      <c r="O10" s="11">
+        <v>4.41</v>
+      </c>
+      <c r="P10" s="12">
+        <f t="shared" si="0"/>
+        <v>5.8033333333333337</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="O11" s="11">
+        <v>1.81</v>
+      </c>
+      <c r="P11" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0133333333333336</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="11">
+        <v>1.34</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="O12" s="11">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="P12" s="12">
+        <f t="shared" si="0"/>
+        <v>1.4866666666666666</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H3:H11" r:id="rId1" display="Capture the page load time of Billing Page" xr:uid="{EA3728FD-89F0-4831-AB7F-6A632B81B712}"/>
+    <hyperlink ref="H12" r:id="rId2" xr:uid="{0C8710EE-6DCF-4125-AF8A-D06D1405B322}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{124E5B94-36E0-480A-A67A-3C83A5DFE7AF}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{2E93540A-A494-4351-BB3C-7A84842F8ABF}"/>
+    <hyperlink ref="H5" r:id="rId5" xr:uid="{E689433F-6D1E-4251-971A-260E2B2B7509}"/>
+    <hyperlink ref="H6" r:id="rId6" xr:uid="{885FC5D6-F905-4F50-BB88-C7F26B7C4654}"/>
+    <hyperlink ref="H7" r:id="rId7" xr:uid="{882A299A-7192-449B-859A-FD4FBB7576D3}"/>
+    <hyperlink ref="H8" r:id="rId8" xr:uid="{20456D04-CFB6-421E-A296-62B64EF51357}"/>
+    <hyperlink ref="H9" r:id="rId9" xr:uid="{94EE4339-34B7-4672-869E-770002B8DCC8}"/>
+    <hyperlink ref="H10" r:id="rId10" xr:uid="{3A715B6B-9265-43A2-B210-DF60DE71EC20}"/>
+    <hyperlink ref="H11" r:id="rId11" xr:uid="{279F9D08-BD40-4A5D-BEC5-B6259B62777A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Engage/K12-Performance/src/main/resources/excelfiles/K12_Performance.xlsx
+++ b/Engage/K12-Performance/src/main/resources/excelfiles/K12_Performance.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="81">
   <si>
     <t>Environment</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>8.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User Name not present on page.</t>
   </si>
 </sst>
 </file>
@@ -270,7 +273,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,8 +411,30 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="56">
+  <fills count="68">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +465,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -742,7 +827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -790,6 +875,14 @@
     <xf numFmtId="0" fontId="22" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="22" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="65" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1313,13 +1406,15 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="14" t="s">
-        <v>40</v>
+      <c r="J2" s="52" t="s">
+        <v>76</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="1"/>
       <c r="O2" s="4"/>

--- a/Engage/K12-Performance/src/main/resources/excelfiles/K12_Performance.xlsx
+++ b/Engage/K12-Performance/src/main/resources/excelfiles/K12_Performance.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="84">
   <si>
     <t>Environment</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>8.91</t>
+  </si>
+  <si>
+    <t>14.01</t>
+  </si>
+  <si>
+    <t>4.87</t>
+  </si>
+  <si>
+    <t>5.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Account settings not present on page.</t>
   </si>
 </sst>
 </file>
@@ -270,7 +282,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,8 +420,162 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="56">
+  <fills count="140">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +606,426 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -742,7 +1328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -790,6 +1376,62 @@
     <xf numFmtId="0" fontId="22" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="22" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="65" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="77" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="89" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="91" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="95" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="101" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="103" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="107" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="113" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="115" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="119" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="121" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="129" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="131" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="133" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1313,13 +1955,15 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="14" t="s">
-        <v>40</v>
+      <c r="J2" s="100" t="s">
+        <v>76</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="1"/>
       <c r="O2" s="4"/>
@@ -1458,11 +2102,11 @@
       <c r="I5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>40</v>
+      <c r="J5" s="55" t="s">
+        <v>73</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="11">
@@ -1510,11 +2154,11 @@
       <c r="I6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>40</v>
+      <c r="J6" s="51" t="s">
+        <v>73</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="11">
@@ -1614,11 +2258,11 @@
       <c r="I8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="47" t="s">
         <v>73</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>74</v>

--- a/Engage/K12-Performance/src/main/resources/excelfiles/K12_Performance.xlsx
+++ b/Engage/K12-Performance/src/main/resources/excelfiles/K12_Performance.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833B6110-D24C-4D93-92C6-313D665C5A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD6B2F1-0549-4629-8BC7-2A9BEE80D16B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
   <si>
     <t>Environment</t>
   </si>
@@ -115,9 +115,6 @@
     <t>skumar_test</t>
   </si>
   <si>
-    <t>ResearchK12@NS3196</t>
-  </si>
-  <si>
     <t>Reading 1</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>Gaurav</t>
   </si>
   <si>
-    <t>Sogo Platform</t>
-  </si>
-  <si>
     <t>Load SM Tab</t>
   </si>
   <si>
@@ -247,34 +241,73 @@
     <t>PASS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Failed to execute script :return currentQuestionJSON.qid;</t>
-  </si>
-  <si>
-    <t>8.63</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t xml:space="preserve"> K12 Static Login Image not present on page.</t>
-  </si>
-  <si>
     <t>5.69</t>
   </si>
   <si>
-    <t>8.91</t>
-  </si>
-  <si>
-    <t>14.01</t>
-  </si>
-  <si>
-    <t>4.87</t>
-  </si>
-  <si>
     <t>5.65</t>
   </si>
   <si>
-    <t xml:space="preserve"> Account settings not present on page.</t>
+    <t>GVG3196@K12ns</t>
+  </si>
+  <si>
+    <t>12.12</t>
+  </si>
+  <si>
+    <t>4.49</t>
+  </si>
+  <si>
+    <t>8.57</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Question Menu did not appear on DOM</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>5.71</t>
+  </si>
+  <si>
+    <t>9.67</t>
+  </si>
+  <si>
+    <t>5.16</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.42</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>12.57</t>
   </si>
 </sst>
 </file>
@@ -282,7 +315,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +366,36 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -420,162 +483,8 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="140">
+  <fills count="60">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,427 +519,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -1328,7 +837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1338,100 +847,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="65" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="77" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="83" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="89" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="91" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="95" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="101" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="103" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="107" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="113" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="115" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="119" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="121" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="129" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="131" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="133" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1804,7 +1261,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,7 +1294,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1857,8 +1314,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,13 +1373,13 @@
         <v>19</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>21</v>
@@ -1955,15 +1412,13 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="100" t="s">
-        <v>76</v>
+      <c r="J2" s="47" t="s">
+        <v>71</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>83</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="L2" s="7"/>
       <c r="M2" s="4"/>
       <c r="N2" s="1"/>
       <c r="O2" s="4"/>
@@ -1972,7 +1427,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1981,50 +1436,50 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11">
+      <c r="J3" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10">
         <v>9.69</v>
       </c>
       <c r="N3" s="1">
         <v>9.52</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>7.71</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="11">
         <f t="shared" ref="P3:P12" si="0">AVERAGE(M3:O3)</f>
         <v>8.9733333333333345</v>
       </c>
-      <c r="Q3" s="11" t="s">
-        <v>69</v>
+      <c r="Q3" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -2033,50 +1488,52 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11">
+        <v>37</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="10">
         <v>1.5</v>
       </c>
       <c r="N4" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <v>1.2</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <f t="shared" si="0"/>
         <v>1.2866666666666668</v>
       </c>
-      <c r="Q4" s="11" t="s">
-        <v>69</v>
+      <c r="Q4" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -2085,50 +1542,50 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11">
+        <v>37</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10">
         <v>4.01</v>
       </c>
       <c r="N5" s="1">
         <v>2.77</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>2.98</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <f t="shared" si="0"/>
         <v>3.2533333333333334</v>
       </c>
-      <c r="Q5" s="11" t="s">
-        <v>70</v>
+      <c r="Q5" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -2137,50 +1594,50 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11">
+        <v>37</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10">
         <v>3.85</v>
       </c>
       <c r="N6" s="1">
         <v>2.57</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="10">
         <v>2.94</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="11">
         <f t="shared" si="0"/>
         <v>3.1199999999999997</v>
       </c>
-      <c r="Q6" s="11" t="s">
-        <v>70</v>
+      <c r="Q6" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -2189,50 +1646,50 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11">
+        <v>37</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10">
         <v>3.68</v>
       </c>
       <c r="N7" s="1">
         <v>3.22</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="10">
         <v>3.94</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <f t="shared" si="0"/>
         <v>3.6133333333333333</v>
       </c>
-      <c r="Q7" s="11" t="s">
-        <v>71</v>
+      <c r="Q7" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -2241,52 +1698,50 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="11">
+        <v>71</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10">
         <v>5.58</v>
       </c>
       <c r="N8" s="1">
         <v>3.56</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="10">
         <v>3.98</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="11">
         <f t="shared" si="0"/>
         <v>4.373333333333334</v>
       </c>
-      <c r="Q8" s="11" t="s">
-        <v>69</v>
+      <c r="Q8" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -2295,50 +1750,50 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11">
+        <v>37</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10">
         <v>5.2</v>
       </c>
       <c r="N9" s="1">
         <v>4.51</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="10">
         <v>4.05</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="11">
         <f t="shared" si="0"/>
         <v>4.5866666666666669</v>
       </c>
-      <c r="Q9" s="11" t="s">
-        <v>69</v>
+      <c r="Q9" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -2347,50 +1802,50 @@
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11">
+        <v>37</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10">
         <v>7.06</v>
       </c>
       <c r="N10" s="1">
         <v>5.94</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="10">
         <v>4.41</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <f t="shared" si="0"/>
         <v>5.8033333333333337</v>
       </c>
-      <c r="Q10" s="11" t="s">
-        <v>72</v>
+      <c r="Q10" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -2399,50 +1854,50 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11">
+        <v>37</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10">
         <v>2.2400000000000002</v>
       </c>
       <c r="N11" s="1">
         <v>1.99</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <v>1.81</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="11">
         <f t="shared" si="0"/>
         <v>2.0133333333333336</v>
       </c>
-      <c r="Q11" s="11" t="s">
-        <v>72</v>
+      <c r="Q11" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -2451,48 +1906,44 @@
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" s="11">
+        <v>37</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10">
         <v>1.34</v>
       </c>
       <c r="N12" s="1">
         <v>1.96</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="10">
         <v>1.1599999999999999</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="11">
         <f t="shared" si="0"/>
         <v>1.4866666666666666</v>
       </c>
-      <c r="Q12" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="Q12" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Engage/K12-Performance/src/main/resources/excelfiles/K12_Performance.xlsx
+++ b/Engage/K12-Performance/src/main/resources/excelfiles/K12_Performance.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD6B2F1-0549-4629-8BC7-2A9BEE80D16B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2152214-059D-4D1A-8851-F5730197522B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
   <si>
     <t>Environment</t>
   </si>
@@ -139,175 +139,154 @@
     <t>Note page load time</t>
   </si>
   <si>
+    <t>Performance_TC9</t>
+  </si>
+  <si>
+    <t>Depositing a Question in QB</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Depositing in Question Bank</t>
+  </si>
+  <si>
+    <t>Performance_TC10</t>
+  </si>
+  <si>
+    <t>Add Comment</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Add Comment</t>
+  </si>
+  <si>
+    <t>Performance_TC11</t>
+  </si>
+  <si>
+    <t>Delete Comment</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Delete Comment</t>
+  </si>
+  <si>
+    <t>Move Page</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Move Page</t>
+  </si>
+  <si>
+    <t>Move Matrix Grid</t>
+  </si>
+  <si>
+    <t>Capture the page load time of moving Matrix Grid question</t>
+  </si>
+  <si>
+    <t>Load DM Tab</t>
+  </si>
+  <si>
+    <t>Capture the page load time of DM Tab</t>
+  </si>
+  <si>
+    <t>Load RM tab</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Report Tab</t>
+  </si>
+  <si>
+    <t>Load OMNI Report</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Omni Report</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Capture the page load time of Logout</t>
+  </si>
+  <si>
+    <t>Performance_TC2</t>
+  </si>
+  <si>
+    <t>Performance_TC3</t>
+  </si>
+  <si>
+    <t>Performance_TC4</t>
+  </si>
+  <si>
+    <t>Performance_TC5</t>
+  </si>
+  <si>
+    <t>Performance_TC6</t>
+  </si>
+  <si>
+    <t>Performance_TC7</t>
+  </si>
+  <si>
+    <t>7310 Night Support Readings FROM sharlot_test,7310</t>
+  </si>
+  <si>
+    <t>7310 Night Support Readings FROM sharlot_test,7310,Additional suggestions do you have for improving the support for new teachers at this school</t>
+  </si>
+  <si>
+    <t>7310 Night Support Readings FROM sharlot_test,7310,1</t>
+  </si>
+  <si>
+    <t>RMX READING SURVEY DNT,7250</t>
+  </si>
+  <si>
+    <t>GVG3196@K12ns</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Question Menu did not appear on DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Account settings not present on page.</t>
+  </si>
+  <si>
     <t>SKIP</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>Performance_TC9</t>
-  </si>
-  <si>
-    <t>Depositing a Question in QB</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Depositing in Question Bank</t>
-  </si>
-  <si>
-    <t>Performance_TC10</t>
-  </si>
-  <si>
-    <t>Add Comment</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Add Comment</t>
-  </si>
-  <si>
-    <t>Performance_TC11</t>
-  </si>
-  <si>
-    <t>Delete Comment</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Delete Comment</t>
-  </si>
-  <si>
-    <t>Move Page</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Move Page</t>
-  </si>
-  <si>
-    <t>Move Matrix Grid</t>
-  </si>
-  <si>
-    <t>Capture the page load time of moving Matrix Grid question</t>
-  </si>
-  <si>
-    <t>Load DM Tab</t>
-  </si>
-  <si>
-    <t>Capture the page load time of DM Tab</t>
-  </si>
-  <si>
-    <t>Load RM tab</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Report Tab</t>
-  </si>
-  <si>
-    <t>Load OMNI Report</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Omni Report</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>Capture the page load time of Logout</t>
-  </si>
-  <si>
-    <t>Performance_TC2</t>
-  </si>
-  <si>
-    <t>Performance_TC3</t>
-  </si>
-  <si>
-    <t>Performance_TC4</t>
-  </si>
-  <si>
-    <t>Performance_TC5</t>
-  </si>
-  <si>
-    <t>Performance_TC6</t>
-  </si>
-  <si>
-    <t>Performance_TC7</t>
-  </si>
-  <si>
-    <t>7310 Night Support Readings FROM sharlot_test,7310</t>
-  </si>
-  <si>
-    <t>7310 Night Support Readings FROM sharlot_test,7310,Additional suggestions do you have for improving the support for new teachers at this school</t>
-  </si>
-  <si>
-    <t>7310 Night Support Readings FROM sharlot_test,7310,1</t>
-  </si>
-  <si>
-    <t>RMX READING SURVEY DNT,7250</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>5.69</t>
-  </si>
-  <si>
-    <t>5.65</t>
-  </si>
-  <si>
-    <t>GVG3196@K12ns</t>
-  </si>
-  <si>
-    <t>12.12</t>
-  </si>
-  <si>
-    <t>4.49</t>
-  </si>
-  <si>
-    <t>8.57</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Question Menu did not appear on DOM</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>5.71</t>
-  </si>
-  <si>
-    <t>9.67</t>
-  </si>
-  <si>
-    <t>5.16</t>
-  </si>
-  <si>
-    <t>4.88</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.42</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>12.57</t>
+    <t>5.61</t>
+  </si>
+  <si>
+    <t>6.52</t>
+  </si>
+  <si>
+    <t>9.03</t>
+  </si>
+  <si>
+    <t>7.73</t>
+  </si>
+  <si>
+    <t>10.37</t>
+  </si>
+  <si>
+    <t>8.62</t>
+  </si>
+  <si>
+    <t>6.64</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>10.39</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>9.33</t>
+  </si>
+  <si>
+    <t>13.91</t>
+  </si>
+  <si>
+    <t>9.74</t>
   </si>
 </sst>
 </file>
@@ -315,7 +294,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,86 +350,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -484,7 +383,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="60">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,182 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -837,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -852,43 +576,18 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1294,7 +993,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1315,7 +1014,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,13 +1111,15 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="7"/>
       <c r="M2" s="4"/>
       <c r="N2" s="1"/>
       <c r="O2" s="4"/>
@@ -1427,7 +1128,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1453,11 +1154,11 @@
       <c r="I3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="47" t="s">
-        <v>71</v>
+      <c r="J3" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="10">
@@ -1474,12 +1175,12 @@
         <v>8.9733333333333345</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1497,22 +1198,22 @@
         <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="47" t="s">
-        <v>71</v>
+      <c r="J4" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>84</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M4" s="10">
         <v>1.5</v>
@@ -1528,12 +1229,12 @@
         <v>1.2866666666666668</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -1551,19 +1252,19 @@
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="47" t="s">
-        <v>71</v>
+      <c r="J5" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="10">
@@ -1580,12 +1281,12 @@
         <v>3.2533333333333334</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1603,19 +1304,19 @@
         <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="47" t="s">
-        <v>71</v>
+      <c r="J6" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="10">
@@ -1632,12 +1333,12 @@
         <v>3.1199999999999997</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -1655,19 +1356,19 @@
         <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="47" t="s">
-        <v>71</v>
+      <c r="J7" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="10">
@@ -1684,12 +1385,12 @@
         <v>3.6133333333333333</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -1707,19 +1408,19 @@
         <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="47" t="s">
-        <v>71</v>
+      <c r="J8" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="10">
@@ -1736,7 +1437,7 @@
         <v>4.373333333333334</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1759,19 +1460,19 @@
         <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="47" t="s">
-        <v>71</v>
+      <c r="J9" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="10">
@@ -1788,12 +1489,12 @@
         <v>4.5866666666666669</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -1811,19 +1512,19 @@
         <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="47" t="s">
-        <v>71</v>
+      <c r="J10" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="10">
@@ -1840,12 +1541,12 @@
         <v>5.8033333333333337</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -1863,19 +1564,19 @@
         <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="47" t="s">
-        <v>71</v>
+      <c r="J11" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="10">
@@ -1892,12 +1593,12 @@
         <v>2.0133333333333336</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -1915,19 +1616,19 @@
         <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="47" t="s">
-        <v>71</v>
+      <c r="J12" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="10">
